--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AD15F6F-FDE1-431E-ABEA-8B691DBB3EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB30FCB-97C9-48A1-A3B1-3D2232F412B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2C92F227-6414-46AB-ABCC-C8B522394796}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{2C92F227-6414-46AB-ABCC-C8B522394796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>supplier_nama</t>
   </si>
@@ -36,22 +36,13 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>WRD</t>
-  </si>
-  <si>
-    <t>Wardah</t>
-  </si>
-  <si>
-    <t>PGN</t>
-  </si>
-  <si>
-    <t>Piggeon</t>
-  </si>
-  <si>
-    <t>Jl.Bromo No 11</t>
-  </si>
-  <si>
-    <t>Jl.Surabaya No 24</t>
+    <t>Jl.Bali Panjang 31</t>
+  </si>
+  <si>
+    <t>The Originote</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
 </sst>
 </file>
@@ -412,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E5FA43-F2B0-4878-8A73-AF2EE6D5DD5C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,24 +429,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
